--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a25_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a25_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-227.57878537734524</v>
+        <v>-105.5674577863067</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0.09916957484935195</v>
       </c>
       <c r="D2">
-        <v>4.623384984</v>
+        <v>297.092816532</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-236.89995809257056</v>
+        <v>-105.84488407880603</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09920532363664455</v>
       </c>
       <c r="D3">
-        <v>1.890248625</v>
+        <v>229.387371966</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-234.73360819292205</v>
+        <v>-105.4938270439315</v>
       </c>
       <c r="C4">
-        <v>1.210806993050299e-14</v>
+        <v>0.09013521694606508</v>
       </c>
       <c r="D4">
-        <v>2.320528843</v>
+        <v>238.119057973</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-232.95084363095327</v>
+        <v>-104.60548337657738</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0.09852701461338081</v>
       </c>
       <c r="D5">
-        <v>1.884262344</v>
+        <v>304.863617716</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-223.95569713963783</v>
+        <v>-103.49903687190475</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0.08675010732014433</v>
       </c>
       <c r="D6">
-        <v>1.911040989</v>
+        <v>219.10969867</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-229.3010952295175</v>
+        <v>-104.63902673475309</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0.08112826102326275</v>
       </c>
       <c r="D7">
-        <v>2.361470844</v>
+        <v>219.021526803</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-221.46770512952463</v>
+        <v>-102.87894895186048</v>
       </c>
       <c r="C8">
-        <v>1.2833342637369559e-14</v>
+        <v>0.09775684673713221</v>
       </c>
       <c r="D8">
-        <v>2.390422012</v>
+        <v>213.943059503</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-229.22028700507536</v>
+        <v>-105.10124785893194</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.09898214076070072</v>
       </c>
       <c r="D9">
-        <v>2.287822919</v>
+        <v>201.424226699</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-234.3341185339081</v>
+        <v>-105.9960833017315</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0.07092340862122525</v>
       </c>
       <c r="D10">
-        <v>1.9796739</v>
+        <v>251.647956802</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-222.4877556750015</v>
+        <v>-102.78699673530178</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0.09590964376430258</v>
       </c>
       <c r="D11">
-        <v>2.370805878</v>
+        <v>228.107253047</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
